--- a/biology/Médecine/Oxazépam/Oxazépam.xlsx
+++ b/biology/Médecine/Oxazépam/Oxazépam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxaz%C3%A9pam</t>
+          <t>Oxazépam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oxazépam est un composé organique de la famille des benzodiazépines, commercialisé comme médicament. Comme toutes les molécules de cette famille, il possède des propriétés anxiolytiques, hypnotiques et sédatives, anticonvulsivantes, et myorelaxantes, mais il est surtout utilisé comme anxiolytique pour limiter les effets gênants de l'anxiété, et parfois comme hypnotique dans le traitement à court terme de l'insomnie lorsque d'autres traitements, notamment les règles hygiénodiététiques, ont échoué.
-C'est un métabolite actif d'un large éventail d'autres benzodiazépines, telles que le diazépam, le kétazolam, le témazépam, le chlordiazépoxide, le démoxazépam, l'halazépam, le médazépam, le prazépam, le pinazépam et le clorazépate[3].
+C'est un métabolite actif d'un large éventail d'autres benzodiazépines, telles que le diazépam, le kétazolam, le témazépam, le chlordiazépoxide, le démoxazépam, l'halazépam, le médazépam, le prazépam, le pinazépam et le clorazépate.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxaz%C3%A9pam</t>
+          <t>Oxazépam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette substance médicamenteuse est apparue dans les années 1960.
 Étant elle-même un produit du métabolisme d'autres composés dont le diazépam et le témazépam, elle fut l'une des premières à être fabriquées alors que cette classe de médicaments était en plein développement. Comparé à d'autres substances introduites plus tard telles que l'alprazolam, elle est d'une puissance modérée.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxaz%C3%A9pam</t>
+          <t>Oxazépam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,48 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les laboratoires Roche (entreprise) et Wyeth ont travaillé sur les dérivés "3-hydroxy-benzodiazépines". Wyeth a découvert et breveté en premier la structure et l'activité biologique de l'oxazépam commercialisé en 1965 aux États-Unis.
-Relation structure-activité
-La molécule présente un cycle benzène ou cycle A (benzo) et deux atomes d'azote (diaza) faisant partie de l'hétérocycle azoté à 7 atomes (azépine) ou cycle B. Un autre cycle phényl se trouve en position 5 du cycle azoté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Relation structure-activité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule présente un cycle benzène ou cycle A (benzo) et deux atomes d'azote (diaza) faisant partie de l'hétérocycle azoté à 7 atomes (azépine) ou cycle B. Un autre cycle phényl se trouve en position 5 du cycle azoté.
 L'halogène en position 7 du cycle A favorise l'activité anxiolytique.
 La suppression de la double liaison de l'azote en position 4 du cycle B diminue l'activité.
 Le groupement OH en position 3 du cycle B fait augmenter la polarité de la molécule, favorise la glucuronoconjugaison et une élimination plus rapide.
@@ -558,48 +609,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pharmacologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mécanisme d'action
-L'oxazépam est une benzodiazépine de durée d'action intermédiaire de la famille des 3-hydroxy benzodiazépines. L'oxazépam agit en se liant aux sites BZD des récepteurs GABAergiques, et par allostérie augmentent l'effet du GABA sur le récepteur GABAA, entrainant un effet dépresseur sur le système nerveux central.
-Pharmacocinétique
-La demi-vie de l'oxazépam est de 6 à 9 heures[4],[5],[6]. Par ailleurs, l'oxazépam est la benzodiazépine la plus lentement absorbée et a par conséquent le plus long délai d'action (temps avant manifestation de l'effet thérapeutique) de toutes les benzodiazepines, son délai d'action est d'environ 1h~1h30[7].
-L'oxazépam est un des métabolites actifs formés lors de la métabolisation du diazépam, nordazépam et d'autres médicaments à structure similaire. L'oxazépam semble être plus sûr que les autres benzodiazépines pour les patients insuffisants hépatiques car son action et son élimination ne dépendent pas d'une métabolisation hépatique mais par glucurono-conjugaison, n'entraînant pas la fabrication de métabolites actifs, limitant ainsi les risques d'accumulation du médicament, notamment chez le sujet âgé.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oxaz%C3%A9pam</t>
+          <t>Oxazépam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,68 +630,290 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mécanisme d'action</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oxazépam est une benzodiazépine de durée d'action intermédiaire de la famille des 3-hydroxy benzodiazépines. L'oxazépam agit en se liant aux sites BZD des récepteurs GABAergiques, et par allostérie augmentent l'effet du GABA sur le récepteur GABAA, entrainant un effet dépresseur sur le système nerveux central.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pharmacocinétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La demi-vie de l'oxazépam est de 6 à 9 heures. Par ailleurs, l'oxazépam est la benzodiazépine la plus lentement absorbée et a par conséquent le plus long délai d'action (temps avant manifestation de l'effet thérapeutique) de toutes les benzodiazepines, son délai d'action est d'environ 1h~1h30.
+L'oxazépam est un des métabolites actifs formés lors de la métabolisation du diazépam, nordazépam et d'autres médicaments à structure similaire. L'oxazépam semble être plus sûr que les autres benzodiazépines pour les patients insuffisants hépatiques car son action et son élimination ne dépendent pas d'une métabolisation hépatique mais par glucurono-conjugaison, n'entraînant pas la fabrication de métabolites actifs, limitant ainsi les risques d'accumulation du médicament, notamment chez le sujet âgé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Utilisation thérapeutique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Indications thérapeutiques
-C'est une benzodiazépine intermédiaire qui a une action plus lente et prolongée[8] d'où son utilisation plus comme anxiolytique que comme hypnosédatif et comme somnifère. Elle est donc habituellement prescrite pour le traitement symptomatique de l'anxiété, associée ou non à la dépression.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Indications thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une benzodiazépine intermédiaire qui a une action plus lente et prolongée d'où son utilisation plus comme anxiolytique que comme hypnosédatif et comme somnifère. Elle est donc habituellement prescrite pour le traitement symptomatique de l'anxiété, associée ou non à la dépression.
 Elle est surtout utilisée dans le cadre d'un sevrage alcoolique, grâce à l'existence d'une forme de comprimés dosés à 50 mg. En effet la posologie habituelle du sevrage alcoolique est de 150 mg d'oxazépam répartis en trois prises dans la journée. La molécule est généralement bien tolérée et a de fait une action complète sur la journée. Son absorption et élimination permettent de limiter l'impact hépatique.
 Comme toutes les benzodiazépines elle peut être utilisée comme anti-épileptique, mais de courte durée (limité à 3 semaines en continu dans cette indication).
 Elle a l'avantage de ne pas avoir de métabolites actifs, donc elle peut être utilisé comme molécule "test", pour certains troubles neurologiques d'étiologie incertaine. En effet au bout de 8 h (environ) en prise unique modérée, l'effet est nul contrairement aux autres benzodiazépines (Valium, Xanax...).
-Cette molécule est également employée pour traiter les symptômes de la phobie sociale, du stress post-traumatique, et pour d'autres maladies[9]. Elle reste néanmoins peu prescrite dans ces indications du fait du temps avant l'apparition des effets de la molécule.
+Cette molécule est également employée pour traiter les symptômes de la phobie sociale, du stress post-traumatique, et pour d'autres maladies. Elle reste néanmoins peu prescrite dans ces indications du fait du temps avant l'apparition des effets de la molécule.
 L'oxazépam est également utilisée chez les personnes anxieuses présentant des troubles hépatiques où une insuffisance rénale du fait de son élimination par glucoconjugaison, qui diffère des autres benzodiazépines.
 L'oxazépam présente une alternative intéressante aux autres benzodiazépines à demi-vie courte car elle semble moins addictogène que ces dernières.
-Contre-indications
-L'oxazépam est contre-indiqué en cas de myasthénie et de maladie hépatique sévère, d'hypersensibilité aux benzodiazépines (comme tous les médicaments de cette classe).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation thérapeutique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oxazépam est contre-indiqué en cas de myasthénie et de maladie hépatique sévère, d'hypersensibilité aux benzodiazépines (comme tous les médicaments de cette classe).
 Il est déconseillé en cas d'insuffisance respiratoire sévère, en cas de grossesse (trois premiers mois, car le risque tératogène n'est pas évalué ; dernier trimestre par risque d'intoxication ou de syndrome de sevrage du nouveau-né) et en cas d'allaitement.
 L'usage de boissons alcoolisées est fortement déconseillé.
-Précautions spéciales d'emploi</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ils sont pour la plupart ceux des autres benzodiazépines.
-En cas de sevrage brutal (diminution rapide de la dose ou arrêt du traitement) de l'oxazépam, peuvent apparaître des douleurs abdominales, des crampes du muscle, convulsions, dépression, insomnie, transpiration, tremblements, ou vomissement[10].
-Effets sur la descendance humaine
-Bien qu'aucun effet grave n'ait été signalé sur la descendance humaine, la prudence veut que cette substance ne soit pas utilisée pendant la grossesse, notamment :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont pour la plupart ceux des autres benzodiazépines.
+En cas de sevrage brutal (diminution rapide de la dose ou arrêt du traitement) de l'oxazépam, peuvent apparaître des douleurs abdominales, des crampes du muscle, convulsions, dépression, insomnie, transpiration, tremblements, ou vomissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Effets sur la descendance humaine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'aucun effet grave n'ait été signalé sur la descendance humaine, la prudence veut que cette substance ne soit pas utilisée pendant la grossesse, notamment :
 pendant les trois premiers mois : risque tératogène non-évalué ;
 dernier trimestre par risque d'intoxication ou de syndrome de sevrage du nouveau-né.
 De même, l'utilisation pendant l'allaitement est fortement déconseillée.
 L'oxazépam reste toutefois la benzodiazépine de référence, en l'absence d'alternative thérapeutique, chez la femme enceinte.
-Effets secondaires fréquents
-Les effets secondaires les plus fréquents sont la somnolence et le risque d'amnésie antérograde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Effets secondaires fréquents</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus fréquents sont la somnolence et le risque d'amnésie antérograde.
 Ces effets sont moins marqués que la plupart des autres benzodiazépines, ils diminuent généralement avec le temps.
-Effets secondaires rares ou possibles
-Amnésie antérograde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Effets secondaires rares ou possibles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Amnésie antérograde
 Hépatotoxicité (dommages au foie)
-Ototoxicité (hyperacousie, acouphène)[11]
+Ototoxicité (hyperacousie, acouphène)
 Ictus amnésique
 Vertige
 Céphalée (mal de tête)
@@ -687,115 +925,298 @@
 Fatigue
 Désorientation
 Obnubilations
-Dépendance, avec phénomènes de sevrage à l'arrêt.
-Effets secondaires éventuels
-Certains effets secondaires plus rares ont été constatés :
+Dépendance, avec phénomènes de sevrage à l'arrêt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Effets secondaires éventuels</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Certains effets secondaires plus rares ont été constatés :
 syndrome myasthénique ;
 dépression respiratoire ;
 érythème pigmenté fixe.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Voies d'administration et formes galéniques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Posologie et mode d'administration
-La posologie est strictement individuelle, et peut varier de 10  à   150 mg chez certains sujets.
-Statut légal
-Liste I produit listé substance toxique ; uniquement sur ordonnance.
-Disponibilité
-Uniquement sur ordonnance liste I.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Posologie et mode d'administration</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La posologie est strictement individuelle, et peut varier de 10  à   150 mg chez certains sujets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Voies d'administration et formes galéniques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Statut légal</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste I produit listé substance toxique ; uniquement sur ordonnance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Voies d'administration et formes galéniques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Disponibilité</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniquement sur ordonnance liste I.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Accoutumance, tolérance et sevrage</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oxazépam, comme les autres benzodiazépines, peut causer une tolérance, une dépendance physique pouvant mener à une addiction et dans certains cas à un syndrome de sevrage. L'arrêt brutal d'une consommation longue (supérieure à 12 semaines) ou importante d'oxazépam ou des autres benzodiazépines peut se caractériser par des symptômes de sevrage similaires à ceux retrouvés dans le sevrage alcoolique. Plus la période d'utilisation et l'intensité des doses auront été importantes, plus ces symptômes risquent d'être marqués. C'est pourquoi un traitement aux benzodiazépines se doit d'être arrêté aussi rapidement que possible par réduction lente et progressive des doses[12].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oxazépam, comme les autres benzodiazépines, peut causer une tolérance, une dépendance physique pouvant mener à une addiction et dans certains cas à un syndrome de sevrage. L'arrêt brutal d'une consommation longue (supérieure à 12 semaines) ou importante d'oxazépam ou des autres benzodiazépines peut se caractériser par des symptômes de sevrage similaires à ceux retrouvés dans le sevrage alcoolique. Plus la période d'utilisation et l'intensité des doses auront été importantes, plus ces symptômes risquent d'être marqués. C'est pourquoi un traitement aux benzodiazépines se doit d'être arrêté aussi rapidement que possible par réduction lente et progressive des doses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>L'oxazépam étant un métabolite actif du diazépam, il existe un risque possible d'interactions avec d'autres médicaments ou aliments, avec l'exception des interactions liées au CYP450 (comme avec la cimétidine).
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oxazépam étant un métabolite actif du diazépam, il existe un risque possible d'interactions avec d'autres médicaments ou aliments, avec l'exception des interactions liées au CYP450 (comme avec la cimétidine).
 Par ailleurs, comme toutes les benzodiazépines, la prise combinée avec un autre dépresseur du système nerveux central, comme les opioïdes — codéine, morphine, méthadone, etc. — l'alcool, les barbituriques — phénobarbital, amobarbital, sécobarbital, etc. — ou encore d'autres benzodiazépines, est déconseillée, les interactions étant imprévisibles et pouvant mener à une augmentation de la sédation, de l'incoordination motrice, et dans certains cas à la mort par arrêt respiratoire en cas de surdose impliquant plusieurs dépresseurs du système nerveux central.
-Dose toxique
-Il existe un antidote spécifique dose-dépendant : le flumazénil (Anexate).
-Risques et tableau clinique
-Risque de dépression respiratoire en cas de surdosage volontaire ou involontaire.
-Prise en charge</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Interactions médicamenteuses</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dose toxique</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe un antidote spécifique dose-dépendant : le flumazénil (Anexate).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Oxazépam</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Interactions médicamenteuses</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Risques et tableau clinique</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Risque de dépression respiratoire en cas de surdosage volontaire ou involontaire.
+</t>
         </is>
       </c>
     </row>
